--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6512"/>
+  <dimension ref="A1:B6513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52565,6 +52565,18 @@
         </is>
       </c>
     </row>
+    <row r="6513">
+      <c r="A6513" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6513" t="inlineStr">
+        <is>
+          <t>1,0492</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6513"/>
+  <dimension ref="A1:B6514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52577,6 +52577,18 @@
         </is>
       </c>
     </row>
+    <row r="6514">
+      <c r="A6514" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6514" t="inlineStr">
+        <is>
+          <t>1,0501</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6514"/>
+  <dimension ref="A1:B6515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52589,6 +52589,18 @@
         </is>
       </c>
     </row>
+    <row r="6515">
+      <c r="A6515" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6515" t="inlineStr">
+        <is>
+          <t>1,0498</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6515"/>
+  <dimension ref="A1:B6516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52601,6 +52601,18 @@
         </is>
       </c>
     </row>
+    <row r="6516">
+      <c r="A6516" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6516" t="inlineStr">
+        <is>
+          <t>1,0491</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6516"/>
+  <dimension ref="A1:B6517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52613,6 +52613,18 @@
         </is>
       </c>
     </row>
+    <row r="6517">
+      <c r="A6517" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6517" t="inlineStr">
+        <is>
+          <t>1,0491</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6517"/>
+  <dimension ref="A1:B6518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52625,6 +52625,18 @@
         </is>
       </c>
     </row>
+    <row r="6518">
+      <c r="A6518" t="inlineStr">
+        <is>
+          <t>2024-12-16</t>
+        </is>
+      </c>
+      <c r="B6518" t="inlineStr">
+        <is>
+          <t>1,0509</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6518"/>
+  <dimension ref="A1:B6519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52637,6 +52637,18 @@
         </is>
       </c>
     </row>
+    <row r="6519">
+      <c r="A6519" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B6519" t="inlineStr">
+        <is>
+          <t>1,0520</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6519"/>
+  <dimension ref="A1:B6520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52649,6 +52649,18 @@
         </is>
       </c>
     </row>
+    <row r="6520">
+      <c r="A6520" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B6520" t="inlineStr">
+        <is>
+          <t>1,0507</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6520"/>
+  <dimension ref="A1:B6521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52661,6 +52661,18 @@
         </is>
       </c>
     </row>
+    <row r="6521">
+      <c r="A6521" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="B6521" t="inlineStr">
+        <is>
+          <t>1,0489</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6521"/>
+  <dimension ref="A1:B6522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52673,6 +52673,18 @@
         </is>
       </c>
     </row>
+    <row r="6522">
+      <c r="A6522" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B6522" t="inlineStr">
+        <is>
+          <t>1,0499</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6522"/>
+  <dimension ref="A1:B6523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52685,6 +52685,18 @@
         </is>
       </c>
     </row>
+    <row r="6523">
+      <c r="A6523" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B6523" t="inlineStr">
+        <is>
+          <t>1,0502</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBI/euro_to_dollar.xlsx
+++ b/DataBI/euro_to_dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6523"/>
+  <dimension ref="A1:B6524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
@@ -52697,6 +52697,18 @@
         </is>
       </c>
     </row>
+    <row r="6524">
+      <c r="A6524" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
+      <c r="B6524" t="inlineStr">
+        <is>
+          <t>1,0495</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
